--- a/biology/Médecine/Paul_Sérieux/Paul_Sérieux.xlsx
+++ b/biology/Médecine/Paul_Sérieux/Paul_Sérieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9rieux</t>
+          <t>Paul_Sérieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Sérieux (né le 2 juillet 1864 au Havre et mort à Paris le 26 janvier 1947[1]) est un médecin psychiatre français, élève de Valentin Magnan.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Sérieux (né le 2 juillet 1864 au Havre et mort à Paris le 26 janvier 1947) est un médecin psychiatre français, élève de Valentin Magnan.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9rieux</t>
+          <t>Paul_Sérieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Paul Raimond sérieux est né au Havre. Son père, Nicolas Sérieux, servait alors comme lieutenant dans un régiment d'infanterie en Algérie[2].
-La famille s'installe à Paris durant l'enfance de Sérieux et il y commence des études de médecines. En 1886, il est reçu premier au concours de l'internat des asiles de la Seine[2].
-Carrière
-En 1888 il soutient sa thèse intitulée Recherches cliniques sur les anomalies de l’instinct sexuel et passe le premier concours du médicat des asiles, devenant alors médecin-adjoint. Il exerce successivement dans les asiles de Vaucluse et de Villejuif[2].
-En 1898, il accède au grade de médecin-chef, nommé tout d'abord à Ville-Evrard. En 1901 et 1902, il effectue des missions d'études dans l'est de la France, ainsi qu'en Allemagne, en Italie et en Suisse. Ces missions sont relatées dans son rapport de 1903[3]. En 1908, il est muté à  l'asile de Maison-Blanche[2].
-En 1921, il devient chef de la première section des femmes à l'hôpital Sainte-Anne[2].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Raimond sérieux est né au Havre. Son père, Nicolas Sérieux, servait alors comme lieutenant dans un régiment d'infanterie en Algérie.
+La famille s'installe à Paris durant l'enfance de Sérieux et il y commence des études de médecines. En 1886, il est reçu premier au concours de l'internat des asiles de la Seine.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9rieux</t>
+          <t>Paul_Sérieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvre scientifique</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s'est intéressé aux délires chroniques à évolution systématique. Il a été envoyé en mission dans différents pays et a rédigé un rapport sur les soins prodigués aux aliénés en France, Allemagne, Suisse et Belgique.
-Il a travaillé avec des épileptiques.
-Il est le premier à avoir divulgué les travaux de Emil Kraepelin en France. (Classification des maladies mentales et théories de Kraepelin sur la démence précoce)[2].
-Il a écrit sur les institutions psychiatriques du XVIIe et du XVIIIe siècle.
-Il a travaillé avec Capgras.
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1888 il soutient sa thèse intitulée Recherches cliniques sur les anomalies de l’instinct sexuel et passe le premier concours du médicat des asiles, devenant alors médecin-adjoint. Il exerce successivement dans les asiles de Vaucluse et de Villejuif.
+En 1898, il accède au grade de médecin-chef, nommé tout d'abord à Ville-Evrard. En 1901 et 1902, il effectue des missions d'études dans l'est de la France, ainsi qu'en Allemagne, en Italie et en Suisse. Ces missions sont relatées dans son rapport de 1903. En 1908, il est muté à  l'asile de Maison-Blanche.
+En 1921, il devient chef de la première section des femmes à l'hôpital Sainte-Anne.
 </t>
         </is>
       </c>
@@ -565,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9rieux</t>
+          <t>Paul_Sérieux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +597,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'est intéressé aux délires chroniques à évolution systématique. Il a été envoyé en mission dans différents pays et a rédigé un rapport sur les soins prodigués aux aliénés en France, Allemagne, Suisse et Belgique.
+Il a travaillé avec des épileptiques.
+Il est le premier à avoir divulgué les travaux de Emil Kraepelin en France. (Classification des maladies mentales et théories de Kraepelin sur la démence précoce).
+Il a écrit sur les institutions psychiatriques du XVIIe et du XVIIIe siècle.
+Il a travaillé avec Capgras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Sérieux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_S%C3%A9rieux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paul Sérieux, L’assistance des aliénés en France, en Allemagne, en Italie et en Suisse, Paris, Imprimerie municipale, 1903
 avec Mathieu Félix, L'alcool. Composition et effets des boissons alcooliques, l'hygiène de la boisson, la lutte contre l'alcoolisme , Alcan, 1899, collection « Bibliothèque utile » no  CXIV, deuxième édition revue et corrigée, Tampon de la Ligue patriotique contre l'alcoolisme. ASIN B0000DSEO1
